--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H2">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N2">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P2">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q2">
-        <v>488.774227133496</v>
+        <v>577.6128475854916</v>
       </c>
       <c r="R2">
-        <v>488.774227133496</v>
+        <v>5198.515628269425</v>
       </c>
       <c r="S2">
-        <v>0.6084497106533679</v>
+        <v>0.6075720035928306</v>
       </c>
       <c r="T2">
-        <v>0.6084497106533679</v>
+        <v>0.6075720035928306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H3">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J3">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N3">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P3">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q3">
-        <v>15.47264979141326</v>
+        <v>18.22970994098833</v>
       </c>
       <c r="R3">
-        <v>15.47264979141326</v>
+        <v>164.067389468895</v>
       </c>
       <c r="S3">
-        <v>0.01926110004579889</v>
+        <v>0.01917523379208268</v>
       </c>
       <c r="T3">
-        <v>0.01926110004579889</v>
+        <v>0.01917523379208268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H4">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J4">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N4">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P4">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q4">
-        <v>13.06408259050587</v>
+        <v>15.13136833599722</v>
       </c>
       <c r="R4">
-        <v>13.06408259050587</v>
+        <v>136.182315023975</v>
       </c>
       <c r="S4">
-        <v>0.01626279953172322</v>
+        <v>0.01591618991065161</v>
       </c>
       <c r="T4">
-        <v>0.01626279953172322</v>
+        <v>0.01591618991065161</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H5">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I5">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J5">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N5">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P5">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q5">
-        <v>191.9113173795731</v>
+        <v>226.7281782347144</v>
       </c>
       <c r="R5">
-        <v>191.9113173795731</v>
+        <v>2040.55360411243</v>
       </c>
       <c r="S5">
-        <v>0.2389004555651738</v>
+        <v>0.2384879320064451</v>
       </c>
       <c r="T5">
-        <v>0.2389004555651738</v>
+        <v>0.2384879320064451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H6">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J6">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N6">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P6">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q6">
-        <v>50.1347368884198</v>
+        <v>59.91425075062</v>
       </c>
       <c r="R6">
-        <v>50.1347368884198</v>
+        <v>539.2282567555801</v>
       </c>
       <c r="S6">
-        <v>0.06241013633705826</v>
+        <v>0.06302183465011935</v>
       </c>
       <c r="T6">
-        <v>0.06241013633705826</v>
+        <v>0.06302183465011936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H7">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J7">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N7">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P7">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q7">
-        <v>1.587066549741176</v>
+        <v>1.890919526948</v>
       </c>
       <c r="R7">
-        <v>1.587066549741176</v>
+        <v>17.018275742532</v>
       </c>
       <c r="S7">
-        <v>0.001975656917593397</v>
+        <v>0.001988996211602722</v>
       </c>
       <c r="T7">
-        <v>0.001975656917593397</v>
+        <v>0.001988996211602723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H8">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J8">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N8">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P8">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q8">
-        <v>1.340014073992308</v>
+        <v>1.569536758873334</v>
       </c>
       <c r="R8">
-        <v>1.340014073992308</v>
+        <v>14.12583082986</v>
       </c>
       <c r="S8">
-        <v>0.001668114090985763</v>
+        <v>0.001650944222046804</v>
       </c>
       <c r="T8">
-        <v>0.001668114090985763</v>
+        <v>0.001650944222046804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.38782960313492</v>
+        <v>2.471212</v>
       </c>
       <c r="H9">
-        <v>2.38782960313492</v>
+        <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="J9">
-        <v>0.09055849620771003</v>
+        <v>0.09139949658522162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.24380474631681</v>
+        <v>9.516752666666667</v>
       </c>
       <c r="N9">
-        <v>8.24380474631681</v>
+        <v>28.550258</v>
       </c>
       <c r="O9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307292</v>
       </c>
       <c r="P9">
-        <v>0.2705940346653672</v>
+        <v>0.2706548988307293</v>
       </c>
       <c r="Q9">
-        <v>19.68480101571944</v>
+        <v>23.51791339089867</v>
       </c>
       <c r="R9">
-        <v>19.68480101571944</v>
+        <v>211.661220518088</v>
       </c>
       <c r="S9">
-        <v>0.02450458886207262</v>
+        <v>0.02473772150145274</v>
       </c>
       <c r="T9">
-        <v>0.02450458886207262</v>
+        <v>0.02473772150145274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H10">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I10">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J10">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.995944108658</v>
+        <v>24.244885</v>
       </c>
       <c r="N10">
-        <v>20.995944108658</v>
+        <v>72.734655</v>
       </c>
       <c r="O10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382217</v>
       </c>
       <c r="P10">
-        <v>0.6891693099000991</v>
+        <v>0.6895205882382218</v>
       </c>
       <c r="Q10">
-        <v>14.70818939710707</v>
+        <v>0.6877950609366666</v>
       </c>
       <c r="R10">
-        <v>14.70818939710707</v>
+        <v>6.190155548430001</v>
       </c>
       <c r="S10">
-        <v>0.0183094629096728</v>
+        <v>0.0007234690588711203</v>
       </c>
       <c r="T10">
-        <v>0.0183094629096728</v>
+        <v>0.0007234690588711205</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H11">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I11">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J11">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.664648159004963</v>
+        <v>0.7651789999999999</v>
       </c>
       <c r="N11">
-        <v>0.664648159004963</v>
+        <v>2.295537</v>
       </c>
       <c r="O11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="P11">
-        <v>0.0218163618028939</v>
+        <v>0.02176156637523891</v>
       </c>
       <c r="Q11">
-        <v>0.465602830455828</v>
+        <v>0.02170710799133333</v>
       </c>
       <c r="R11">
-        <v>0.465602830455828</v>
+        <v>0.195363971922</v>
       </c>
       <c r="S11">
-        <v>0.0005796048395016188</v>
+        <v>2.283299471199574E-05</v>
       </c>
       <c r="T11">
-        <v>0.0005796048395016188</v>
+        <v>2.283299471199575E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.7005252691181399</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H12">
-        <v>0.7005252691181399</v>
+        <v>0.085106</v>
       </c>
       <c r="I12">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="J12">
-        <v>0.02656743799622608</v>
+        <v>0.001049234890461559</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.561184965724957</v>
+        <v>0.6351283333333334</v>
       </c>
       <c r="N12">
-        <v>0.561184965724957</v>
+        <v>1.905385</v>
       </c>
       <c r="O12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="P12">
-        <v>0.01842029363163986</v>
+        <v>0.01806294655581008</v>
       </c>
       <c r="Q12">
-        <v>0.3931242491395296</v>
+        <v>0.01801774397888889</v>
       </c>
       <c r="R12">
-        <v>0.3931242491395296</v>
+        <v>0.16215969581</v>
       </c>
       <c r="S12">
-        <v>0.00048938000893087</v>
+        <v>1.895227375089838E-05</v>
       </c>
       <c r="T12">
-        <v>0.00048938000893087</v>
+        <v>1.895227375089838E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.085106</v>
+      </c>
+      <c r="I13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N13">
+        <v>28.550258</v>
+      </c>
+      <c r="O13">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P13">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q13">
+        <v>0.2699775841497778</v>
+      </c>
+      <c r="R13">
+        <v>2.429798257348</v>
+      </c>
+      <c r="S13">
+        <v>0.0002839805631275446</v>
+      </c>
+      <c r="T13">
+        <v>0.0002839805631275446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.141361</v>
+      </c>
+      <c r="I14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.244885</v>
+      </c>
+      <c r="N14">
+        <v>72.734655</v>
+      </c>
+      <c r="O14">
+        <v>0.6895205882382217</v>
+      </c>
+      <c r="P14">
+        <v>0.6895205882382218</v>
+      </c>
+      <c r="Q14">
+        <v>17.305683729495</v>
+      </c>
+      <c r="R14">
+        <v>155.751153565455</v>
+      </c>
+      <c r="S14">
+        <v>0.01820328093640073</v>
+      </c>
+      <c r="T14">
+        <v>0.01820328093640074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.141361</v>
+      </c>
+      <c r="I15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7651789999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.295537</v>
+      </c>
+      <c r="O15">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="P15">
+        <v>0.02176156637523891</v>
+      </c>
+      <c r="Q15">
+        <v>0.5461748228729999</v>
+      </c>
+      <c r="R15">
+        <v>4.915573405857</v>
+      </c>
+      <c r="S15">
+        <v>0.0005745033768415142</v>
+      </c>
+      <c r="T15">
+        <v>0.0005745033768415143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="H13">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="I13">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="J13">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="N13">
-        <v>8.24380474631681</v>
-      </c>
-      <c r="O13">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="P13">
-        <v>0.2705940346653672</v>
-      </c>
-      <c r="Q13">
-        <v>5.774993538470983</v>
-      </c>
-      <c r="R13">
-        <v>5.774993538470983</v>
-      </c>
-      <c r="S13">
-        <v>0.007188990238120796</v>
-      </c>
-      <c r="T13">
-        <v>0.007188990238120796</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.141361</v>
+      </c>
+      <c r="I16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6351283333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.905385</v>
+      </c>
+      <c r="O16">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="P16">
+        <v>0.01806294655581008</v>
+      </c>
+      <c r="Q16">
+        <v>0.453346347665</v>
+      </c>
+      <c r="R16">
+        <v>4.080117128985</v>
+      </c>
+      <c r="S16">
+        <v>0.0004768601493607679</v>
+      </c>
+      <c r="T16">
+        <v>0.0004768601493607679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.141361</v>
+      </c>
+      <c r="I17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.516752666666667</v>
+      </c>
+      <c r="N17">
+        <v>28.550258</v>
+      </c>
+      <c r="O17">
+        <v>0.2706548988307292</v>
+      </c>
+      <c r="P17">
+        <v>0.2706548988307293</v>
+      </c>
+      <c r="Q17">
+        <v>6.792934335682</v>
+      </c>
+      <c r="R17">
+        <v>61.13640902113799</v>
+      </c>
+      <c r="S17">
+        <v>0.007145264759703921</v>
+      </c>
+      <c r="T17">
+        <v>0.007145264759703922</v>
       </c>
     </row>
   </sheetData>
